--- a/Konstruktionslehre/Dokumente/Stückliste.xlsx
+++ b/Konstruktionslehre/Dokumente/Stückliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Konstruktionslehre\Konstruktionslehre\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DAE696-B570-4B3C-9F9E-D4B1CF99E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC31EAB-C39C-47C6-8A75-BB349E6BE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1289638C-8BF8-4D32-A9EA-87F964236B42}"/>
   </bookViews>
@@ -97,8 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,49 +422,51 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -466,10 +474,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -477,10 +485,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -488,10 +496,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -499,10 +507,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -510,10 +518,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -521,10 +529,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -532,10 +540,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -543,10 +551,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" t="s">

--- a/Konstruktionslehre/Dokumente/Stückliste.xlsx
+++ b/Konstruktionslehre/Dokumente/Stückliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Konstruktionslehre\Konstruktionslehre\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC31EAB-C39C-47C6-8A75-BB349E6BE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E670A77-874A-4F52-9671-60516DFCE088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1289638C-8BF8-4D32-A9EA-87F964236B42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>Pos.</t>
   </si>
@@ -58,20 +58,230 @@
     <t>Werkstoff</t>
   </si>
   <si>
-    <t>Gewicht</t>
-  </si>
-  <si>
     <t>Bemerkungen (Lieferanten, Lieferbedingungen)</t>
+  </si>
+  <si>
+    <t>Lagerbehälter</t>
+  </si>
+  <si>
+    <t>DC04</t>
+  </si>
+  <si>
+    <t>S235JR</t>
+  </si>
+  <si>
+    <t>Keil</t>
+  </si>
+  <si>
+    <t>Trennstütze</t>
+  </si>
+  <si>
+    <t>Blechrutsche</t>
+  </si>
+  <si>
+    <t>Linearmotor</t>
+  </si>
+  <si>
+    <t>100mm Hub</t>
+  </si>
+  <si>
+    <t>Zylinderbefestigung</t>
+  </si>
+  <si>
+    <t>Klappenbefestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klappe </t>
+  </si>
+  <si>
+    <t>Drehzapfen</t>
+  </si>
+  <si>
+    <t>11SMn30</t>
+  </si>
+  <si>
+    <t>Schwingungsdämpfer</t>
+  </si>
+  <si>
+    <t>Gummi</t>
+  </si>
+  <si>
+    <t>Rüttelmotor</t>
+  </si>
+  <si>
+    <t>Schubstange</t>
+  </si>
+  <si>
+    <t>Lagerstützen mit Winkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerstützen </t>
+  </si>
+  <si>
+    <t>lange Lagerstüzte Blechrutsche</t>
+  </si>
+  <si>
+    <t>Querstrebe Blechrutsche</t>
+  </si>
+  <si>
+    <t>kurze Lagerstütze Blechrutsche</t>
+  </si>
+  <si>
+    <t>Verbindungsstück</t>
+  </si>
+  <si>
+    <t>Schraubwinkel</t>
+  </si>
+  <si>
+    <t>Stütze Rütteltisch</t>
+  </si>
+  <si>
+    <t>Rüttelrahmen lang mit Löchern</t>
+  </si>
+  <si>
+    <t>Rüttelrahmenverbindung</t>
+  </si>
+  <si>
+    <t>oberer Rüttelrahmen lang</t>
+  </si>
+  <si>
+    <t>Rütteltisch Rahmen lang</t>
+  </si>
+  <si>
+    <t>Querstütze Blechrutsche</t>
+  </si>
+  <si>
+    <t>untere Längsstrebe Blechrutsche</t>
+  </si>
+  <si>
+    <t>obere Längsstrebe Blechrutsche</t>
+  </si>
+  <si>
+    <t>Rüttelrahmen kurz</t>
+  </si>
+  <si>
+    <t>Rütteltisch Rahmen kurz</t>
+  </si>
+  <si>
+    <t>Rüttelhalterung</t>
+  </si>
+  <si>
+    <t>oberer Rüttelrahmen kurz</t>
+  </si>
+  <si>
+    <t>Lochblech</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2</t>
+  </si>
+  <si>
+    <t>1.1.3.3</t>
+  </si>
+  <si>
+    <t>1.2.5.0</t>
+  </si>
+  <si>
+    <t>1.2.5.1</t>
+  </si>
+  <si>
+    <t>1.2.5.2</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>1.3.2.0</t>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+  </si>
+  <si>
+    <t>1.3.2.2</t>
+  </si>
+  <si>
+    <t>1.3.2.3</t>
+  </si>
+  <si>
+    <t>1.3.1.0</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>1.2.12</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+  </si>
+  <si>
+    <t>1.3.2.5</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.3.1.2</t>
+  </si>
+  <si>
+    <t>1.3.2.6</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +307,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA24FE08-1F78-4263-9D5C-4FBD638C5B5F}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,13 +643,13 @@
     <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,11 +671,8 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,19 +682,37 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -494,8 +722,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -505,8 +742,17 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -516,8 +762,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -527,8 +782,17 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -538,8 +802,17 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -549,8 +822,17 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -560,8 +842,475 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>